--- a/data/trans_orig/Q33-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q33-Habitat-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>7.27624938665907</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>6.942632199592272</v>
+        <v>6.94263219959227</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>7.50957667411198</v>
@@ -693,7 +693,7 @@
         <v>7.433156772308082</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>7.057798708580465</v>
+        <v>7.057798708580466</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.538410544770069</v>
+        <v>7.539188757441151</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.268039394125918</v>
+        <v>7.266273634049238</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.501859703766764</v>
+        <v>7.499740200065786</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.091567667260337</v>
+        <v>7.094208323704157</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.331310372162316</v>
+        <v>7.330991461520747</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.006122985452013</v>
+        <v>7.010641798753488</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.164454197207315</v>
+        <v>7.173648201349346</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.857888663358669</v>
+        <v>6.872211922842204</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.457011177055837</v>
+        <v>7.450091901477376</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7.172968461722922</v>
+        <v>7.17405368497305</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7.363482802845178</v>
+        <v>7.370340755975447</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6.998938559415474</v>
+        <v>6.995429467230915</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.680946858639406</v>
+        <v>7.683979953183295</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.472820276698782</v>
+        <v>7.472091365084593</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.701155165493661</v>
+        <v>7.692226004612134</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.262452981795977</v>
+        <v>7.26049088312099</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.498290806214037</v>
+        <v>7.485777773394132</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.206795304917808</v>
+        <v>7.205524515135523</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.378093862836729</v>
+        <v>7.380134519947244</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.015687464919395</v>
+        <v>7.018629312412312</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.570522320958565</v>
+        <v>7.564037762947119</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.307285637834774</v>
+        <v>7.312560700261909</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7.506445757223266</v>
+        <v>7.504167032821562</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>7.112331825883688</v>
+        <v>7.110894543939355</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>7.197212763863981</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>7.118130740852896</v>
+        <v>7.118130740852897</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>7.488616125655699</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.519643183396054</v>
+        <v>7.522925137883616</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.309964082587978</v>
+        <v>7.312958415962716</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.365867198694319</v>
+        <v>7.360445695768739</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.197146450667049</v>
+        <v>7.195217719727736</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.297816633590583</v>
+        <v>7.298582602720567</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.156314975357772</v>
+        <v>7.156598016220546</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>7.119235083877324</v>
+        <v>7.122566505309572</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>7.046487340803525</v>
+        <v>7.053302298513848</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>7.432606859149395</v>
+        <v>7.429861754896304</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7.254843572173854</v>
+        <v>7.256230650087211</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7.258920359344844</v>
+        <v>7.262988656744599</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>7.143611779988504</v>
+        <v>7.14193085744569</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.673115809387874</v>
+        <v>7.667999637317701</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.475316230816719</v>
+        <v>7.469958178160546</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.501784105152238</v>
+        <v>7.495391867103117</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.331845324316591</v>
+        <v>7.332874171194725</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.459760361666252</v>
+        <v>7.466870412522692</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.323561927498881</v>
+        <v>7.335949515904878</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>7.281525326518643</v>
+        <v>7.27797303652526</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>7.18392394048748</v>
+        <v>7.186097497483172</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7.543980865700198</v>
+        <v>7.54003837620833</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7.373713410380639</v>
+        <v>7.369553834009269</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7.366857434996988</v>
+        <v>7.369156426213729</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>7.2383625050978</v>
+        <v>7.238166214792119</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>7.488867913729547</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.163175274274778</v>
+        <v>7.163175274274777</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>7.21993818092427</v>
@@ -953,7 +953,7 @@
         <v>7.279882368405351</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>7.087192200853958</v>
+        <v>7.087192200853959</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>7.330742505089461</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.358860637243963</v>
+        <v>7.35878304987463</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.356222804554511</v>
+        <v>7.342934473749558</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.398093908824916</v>
+        <v>7.394350761188457</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.075669967305462</v>
+        <v>7.077683921888531</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.119066735570719</v>
+        <v>7.122911508019287</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.155941350570686</v>
+        <v>7.163606091938217</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.181683802508759</v>
+        <v>7.189694504377032</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.009637688504909</v>
+        <v>7.008351646193774</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.266241460574865</v>
+        <v>7.266384887104339</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7.278420647351952</v>
+        <v>7.272859292896469</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7.31149805361931</v>
+        <v>7.320717727432211</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>7.064512804833847</v>
+        <v>7.06410468256546</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.532050535005914</v>
+        <v>7.532387845919756</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.547607721141324</v>
+        <v>7.554583973336184</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.585171205547545</v>
+        <v>7.578489877438154</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.259036021383936</v>
+        <v>7.264522141570017</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.316785418292746</v>
+        <v>7.316583669191405</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.351711055509586</v>
+        <v>7.346956398889094</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.368392524263538</v>
+        <v>7.365115725539877</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.163917230101149</v>
+        <v>7.165409277226709</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.392445823806798</v>
+        <v>7.397686996168481</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7.41559580254782</v>
+        <v>7.412507060481594</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.438618417419408</v>
+        <v>7.444971715005841</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>7.18860895492507</v>
+        <v>7.186239084211977</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>7.411121590172065</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.077485727910719</v>
+        <v>7.07748572791072</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>7.509274074889237</v>
@@ -1089,7 +1089,7 @@
         <v>7.264462995283699</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>7.007681215505032</v>
+        <v>7.007681215505031</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>7.509072743616517</v>
@@ -1101,7 +1101,7 @@
         <v>7.333970336014184</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>7.040524223340898</v>
+        <v>7.040524223340897</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.438801666056282</v>
+        <v>7.442596133522042</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.278913024057306</v>
+        <v>7.278458834672501</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.324059599730396</v>
+        <v>7.325692945071645</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.001372907300047</v>
+        <v>6.996987708229518</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.43333673492179</v>
+        <v>7.429190963668775</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.038539836677737</v>
+        <v>7.039036037958291</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>7.181494486099052</v>
+        <v>7.188850530551105</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>6.93472955634244</v>
+        <v>6.943321964223352</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>7.452347207702791</v>
+        <v>7.457372187819009</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7.180925213874792</v>
+        <v>7.183279710024101</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.274210849015597</v>
+        <v>7.27385231872096</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.99502331735689</v>
+        <v>6.987273252553301</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.575446703951132</v>
+        <v>7.57290510350627</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.458888374651602</v>
+        <v>7.452099815006612</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.486564286988624</v>
+        <v>7.489091061456146</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.143014283995639</v>
+        <v>7.147224666904328</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.585472167814534</v>
+        <v>7.577297726493528</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.203489024972837</v>
+        <v>7.20184003380072</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>7.335729816494348</v>
+        <v>7.33963643193547</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>7.072595052497999</v>
+        <v>7.073302563684479</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>7.556543609499124</v>
+        <v>7.563795147592729</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7.300156284712843</v>
+        <v>7.299458299703516</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7.386560322407908</v>
+        <v>7.392326723861232</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>7.099767278201416</v>
+        <v>7.090122516588359</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>7.469681629182796</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.171609758941642</v>
+        <v>7.171609758941643</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>7.393940889714315</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.507751500798789</v>
+        <v>7.501545819401818</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.351484614242954</v>
+        <v>7.348080717137474</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.427578909365111</v>
+        <v>7.429776422630228</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.134491728576791</v>
+        <v>7.134292228001399</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.351807384166651</v>
+        <v>7.349702317614367</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.138467889316953</v>
+        <v>7.139202596470057</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.209223813660476</v>
+        <v>7.205129782490546</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.007164067321241</v>
+        <v>7.00894822466296</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.438774241780708</v>
+        <v>7.439050611063082</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7.257182759718003</v>
+        <v>7.251904070779761</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7.329624074769298</v>
+        <v>7.325830274141139</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>7.080758728333312</v>
+        <v>7.07751399885814</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.584901169156474</v>
+        <v>7.583430976396508</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.442422788229515</v>
+        <v>7.433905748207124</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.513297049604887</v>
+        <v>7.513309078178795</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.212493283957881</v>
+        <v>7.212354350399616</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.437348171779035</v>
+        <v>7.434273096222162</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.225936860754294</v>
+        <v>7.224909955104544</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.296722681857783</v>
+        <v>7.292046489607381</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.081105956009015</v>
+        <v>7.079221785134852</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.494042364423814</v>
+        <v>7.49376500174118</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7.320273634158676</v>
+        <v>7.315797227096517</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7.389945286953462</v>
+        <v>7.385780676299289</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>7.133948857335257</v>
+        <v>7.131881588794891</v>
       </c>
     </row>
     <row r="19">
